--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Mmrn2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.34952500000001</v>
+        <v>42.72896566666666</v>
       </c>
       <c r="H2">
-        <v>103.048575</v>
+        <v>128.186897</v>
       </c>
       <c r="I2">
-        <v>0.9193849879779717</v>
+        <v>0.9532628077777061</v>
       </c>
       <c r="J2">
-        <v>0.9193849879779719</v>
+        <v>0.9532628077777062</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N2">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O2">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P2">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q2">
-        <v>4396.192046416276</v>
+        <v>9047.29994112046</v>
       </c>
       <c r="R2">
-        <v>39565.72841774648</v>
+        <v>81425.69947008413</v>
       </c>
       <c r="S2">
-        <v>0.4224334522243148</v>
+        <v>0.4491200561288435</v>
       </c>
       <c r="T2">
-        <v>0.4224334522243148</v>
+        <v>0.4491200561288435</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.34952500000001</v>
+        <v>42.72896566666666</v>
       </c>
       <c r="H3">
-        <v>103.048575</v>
+        <v>128.186897</v>
       </c>
       <c r="I3">
-        <v>0.9193849879779717</v>
+        <v>0.9532628077777061</v>
       </c>
       <c r="J3">
-        <v>0.9193849879779719</v>
+        <v>0.9532628077777062</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N3">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q3">
-        <v>2076.546925716317</v>
+        <v>3262.413301202382</v>
       </c>
       <c r="R3">
-        <v>18688.92233144685</v>
+        <v>29361.71971082144</v>
       </c>
       <c r="S3">
-        <v>0.1995369804763687</v>
+        <v>0.1619505548049776</v>
       </c>
       <c r="T3">
-        <v>0.1995369804763687</v>
+        <v>0.1619505548049776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.34952500000001</v>
+        <v>42.72896566666666</v>
       </c>
       <c r="H4">
-        <v>103.048575</v>
+        <v>128.186897</v>
       </c>
       <c r="I4">
-        <v>0.9193849879779717</v>
+        <v>0.9532628077777061</v>
       </c>
       <c r="J4">
-        <v>0.9193849879779719</v>
+        <v>0.9532628077777062</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N4">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O4">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P4">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q4">
-        <v>84.83135021561668</v>
+        <v>42.79754565656165</v>
       </c>
       <c r="R4">
-        <v>763.48215194055</v>
+        <v>385.177910909055</v>
       </c>
       <c r="S4">
-        <v>0.008151509249384497</v>
+        <v>0.002124527343245267</v>
       </c>
       <c r="T4">
-        <v>0.008151509249384497</v>
+        <v>0.002124527343245267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.34952500000001</v>
+        <v>42.72896566666666</v>
       </c>
       <c r="H5">
-        <v>103.048575</v>
+        <v>128.186897</v>
       </c>
       <c r="I5">
-        <v>0.9193849879779717</v>
+        <v>0.9532628077777061</v>
       </c>
       <c r="J5">
-        <v>0.9193849879779719</v>
+        <v>0.9532628077777062</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N5">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q5">
-        <v>970.642156392942</v>
+        <v>1099.581604971497</v>
       </c>
       <c r="R5">
-        <v>8735.779407536476</v>
+        <v>9896.234444743477</v>
       </c>
       <c r="S5">
-        <v>0.09326974633280111</v>
+        <v>0.05458469989466081</v>
       </c>
       <c r="T5">
-        <v>0.09326974633280109</v>
+        <v>0.05458469989466082</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.34952500000001</v>
+        <v>42.72896566666666</v>
       </c>
       <c r="H6">
-        <v>103.048575</v>
+        <v>128.186897</v>
       </c>
       <c r="I6">
-        <v>0.9193849879779717</v>
+        <v>0.9532628077777061</v>
       </c>
       <c r="J6">
-        <v>0.9193849879779719</v>
+        <v>0.9532628077777062</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N6">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O6">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P6">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q6">
-        <v>2039.668451287717</v>
+        <v>5750.912298082945</v>
       </c>
       <c r="R6">
-        <v>18357.01606158945</v>
+        <v>51758.21068274651</v>
       </c>
       <c r="S6">
-        <v>0.1959932996951028</v>
+        <v>0.2854829696059791</v>
       </c>
       <c r="T6">
-        <v>0.1959932996951027</v>
+        <v>0.2854829696059791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -859,10 +859,10 @@
         <v>3.289098</v>
       </c>
       <c r="I7">
-        <v>0.02934487279604177</v>
+        <v>0.02445940160745164</v>
       </c>
       <c r="J7">
-        <v>0.02934487279604178</v>
+        <v>0.02445940160745165</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N7">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O7">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P7">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q7">
-        <v>140.317383985986</v>
+        <v>232.1411691691033</v>
       </c>
       <c r="R7">
-        <v>1262.856455873874</v>
+        <v>2089.27052252193</v>
       </c>
       <c r="S7">
-        <v>0.01348320462310216</v>
+        <v>0.01152379777453593</v>
       </c>
       <c r="T7">
-        <v>0.01348320462310216</v>
+        <v>0.01152379777453594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>3.289098</v>
       </c>
       <c r="I8">
-        <v>0.02934487279604177</v>
+        <v>0.02445940160745164</v>
       </c>
       <c r="J8">
-        <v>0.02934487279604178</v>
+        <v>0.02445940160745165</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N8">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q8">
-        <v>66.27909546812933</v>
+        <v>83.70900080495868</v>
       </c>
       <c r="R8">
-        <v>596.511859213164</v>
+        <v>753.381007244628</v>
       </c>
       <c r="S8">
-        <v>0.006368808917647461</v>
+        <v>0.004155426633877737</v>
       </c>
       <c r="T8">
-        <v>0.006368808917647461</v>
+        <v>0.004155426633877738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -983,10 +983,10 @@
         <v>3.289098</v>
       </c>
       <c r="I9">
-        <v>0.02934487279604177</v>
+        <v>0.02445940160745164</v>
       </c>
       <c r="J9">
-        <v>0.02934487279604178</v>
+        <v>0.02445940160745165</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N9">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O9">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P9">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q9">
-        <v>2.707641753721333</v>
+        <v>1.09812566743</v>
       </c>
       <c r="R9">
-        <v>24.368775783492</v>
+        <v>9.88313100687</v>
       </c>
       <c r="S9">
-        <v>0.0002601793646261683</v>
+        <v>5.451242520999102E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002601793646261683</v>
+        <v>5.451242520999103E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1045,10 +1045,10 @@
         <v>3.289098</v>
       </c>
       <c r="I10">
-        <v>0.02934487279604177</v>
+        <v>0.02445940160745164</v>
       </c>
       <c r="J10">
-        <v>0.02934487279604178</v>
+        <v>0.02445940160745165</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N10">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q10">
-        <v>30.98089590571934</v>
+        <v>28.213739020054</v>
       </c>
       <c r="R10">
-        <v>278.828063151474</v>
+        <v>253.923651180486</v>
       </c>
       <c r="S10">
-        <v>0.002976977955529452</v>
+        <v>0.001400567698070803</v>
       </c>
       <c r="T10">
-        <v>0.002976977955529452</v>
+        <v>0.001400567698070803</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>3.289098</v>
       </c>
       <c r="I11">
-        <v>0.02934487279604177</v>
+        <v>0.02445940160745164</v>
       </c>
       <c r="J11">
-        <v>0.02934487279604178</v>
+        <v>0.02445940160745165</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N11">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O11">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P11">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q11">
-        <v>65.10201061774534</v>
+        <v>147.560433870242</v>
       </c>
       <c r="R11">
-        <v>585.918095559708</v>
+        <v>1328.043904832178</v>
       </c>
       <c r="S11">
-        <v>0.006255701935136541</v>
+        <v>0.007325097075757179</v>
       </c>
       <c r="T11">
-        <v>0.006255701935136539</v>
+        <v>0.007325097075757181</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9415566666666667</v>
+        <v>0.6147903333333333</v>
       </c>
       <c r="H12">
-        <v>2.82467</v>
+        <v>1.844371</v>
       </c>
       <c r="I12">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="J12">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N12">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O12">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P12">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q12">
-        <v>120.50425527719</v>
+        <v>130.1738167490261</v>
       </c>
       <c r="R12">
-        <v>1084.53829749471</v>
+        <v>1171.564350741235</v>
       </c>
       <c r="S12">
-        <v>0.01157934594917451</v>
+        <v>0.006462002173610703</v>
       </c>
       <c r="T12">
-        <v>0.01157934594917451</v>
+        <v>0.006462002173610703</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9415566666666667</v>
+        <v>0.6147903333333333</v>
       </c>
       <c r="H13">
-        <v>2.82467</v>
+        <v>1.844371</v>
       </c>
       <c r="I13">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="J13">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N13">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O13">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P13">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q13">
-        <v>56.9203388272289</v>
+        <v>46.94005880142289</v>
       </c>
       <c r="R13">
-        <v>512.2830494450601</v>
+        <v>422.460529212806</v>
       </c>
       <c r="S13">
-        <v>0.005469518842372971</v>
+        <v>0.002330167230089136</v>
       </c>
       <c r="T13">
-        <v>0.00546951884237297</v>
+        <v>0.002330167230089136</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9415566666666667</v>
+        <v>0.6147903333333333</v>
       </c>
       <c r="H14">
-        <v>2.82467</v>
+        <v>1.844371</v>
       </c>
       <c r="I14">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="J14">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N14">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O14">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P14">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q14">
-        <v>2.325316677242222</v>
+        <v>0.6157770718183332</v>
       </c>
       <c r="R14">
-        <v>20.92785009518</v>
+        <v>5.541993646364999</v>
       </c>
       <c r="S14">
-        <v>0.000223441455948895</v>
+        <v>3.056799651362664E-05</v>
       </c>
       <c r="T14">
-        <v>0.000223441455948895</v>
+        <v>3.056799651362664E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9415566666666667</v>
+        <v>0.6147903333333333</v>
       </c>
       <c r="H15">
-        <v>2.82467</v>
+        <v>1.844371</v>
       </c>
       <c r="I15">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="J15">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N15">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O15">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P15">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q15">
-        <v>26.60632405541223</v>
+        <v>15.82093390046633</v>
       </c>
       <c r="R15">
-        <v>239.45691649871</v>
+        <v>142.388405104197</v>
       </c>
       <c r="S15">
-        <v>0.002556622004466081</v>
+        <v>0.0007853722953401039</v>
       </c>
       <c r="T15">
-        <v>0.00255662200446608</v>
+        <v>0.0007853722953401039</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9415566666666667</v>
+        <v>0.6147903333333333</v>
       </c>
       <c r="H16">
-        <v>2.82467</v>
+        <v>1.844371</v>
       </c>
       <c r="I16">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="J16">
-        <v>0.02520131107093657</v>
+        <v>0.01371567858486953</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N16">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O16">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P16">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q16">
-        <v>55.90946099253556</v>
+        <v>82.74493036622566</v>
       </c>
       <c r="R16">
-        <v>503.18514893282</v>
+        <v>744.704373296031</v>
       </c>
       <c r="S16">
-        <v>0.005372382818974118</v>
+        <v>0.00410756888931596</v>
       </c>
       <c r="T16">
-        <v>0.005372382818974116</v>
+        <v>0.00410756888931596</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.9739683333333332</v>
+        <v>0.359965</v>
       </c>
       <c r="H17">
-        <v>2.921905</v>
+        <v>1.079895</v>
       </c>
       <c r="I17">
-        <v>0.02606882815504993</v>
+        <v>0.008030647155809584</v>
       </c>
       <c r="J17">
-        <v>0.02606882815504994</v>
+        <v>0.008030647155809586</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N17">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O17">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P17">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q17">
-        <v>124.652432325085</v>
+        <v>76.21788340750834</v>
       </c>
       <c r="R17">
-        <v>1121.871890925765</v>
+        <v>685.960950667575</v>
       </c>
       <c r="S17">
-        <v>0.0119779474507191</v>
+        <v>0.003783557558252288</v>
       </c>
       <c r="T17">
-        <v>0.0119779474507191</v>
+        <v>0.003783557558252288</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.9739683333333332</v>
+        <v>0.359965</v>
       </c>
       <c r="H18">
-        <v>2.921905</v>
+        <v>1.079895</v>
       </c>
       <c r="I18">
-        <v>0.02606882815504993</v>
+        <v>0.008030647155809584</v>
       </c>
       <c r="J18">
-        <v>0.02606882815504994</v>
+        <v>0.008030647155809586</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N18">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O18">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P18">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q18">
-        <v>58.87973555175444</v>
+        <v>27.48380602349667</v>
       </c>
       <c r="R18">
-        <v>529.91761996579</v>
+        <v>247.35425421147</v>
       </c>
       <c r="S18">
-        <v>0.005657798770519669</v>
+        <v>0.001364332848942597</v>
       </c>
       <c r="T18">
-        <v>0.005657798770519668</v>
+        <v>0.001364332848942598</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.9739683333333332</v>
+        <v>0.359965</v>
       </c>
       <c r="H19">
-        <v>2.921905</v>
+        <v>1.079895</v>
       </c>
       <c r="I19">
-        <v>0.02606882815504993</v>
+        <v>0.008030647155809584</v>
       </c>
       <c r="J19">
-        <v>0.02606882815504994</v>
+        <v>0.008030647155809586</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N19">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O19">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P19">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q19">
-        <v>2.405362193041111</v>
+        <v>0.360542743825</v>
       </c>
       <c r="R19">
-        <v>21.64825973737</v>
+        <v>3.244884694425</v>
       </c>
       <c r="S19">
-        <v>0.0002311330907130235</v>
+        <v>1.789782348295589E-05</v>
       </c>
       <c r="T19">
-        <v>0.0002311330907130234</v>
+        <v>1.78978234829559E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.9739683333333332</v>
+        <v>0.359965</v>
       </c>
       <c r="H20">
-        <v>2.921905</v>
+        <v>1.079895</v>
       </c>
       <c r="I20">
-        <v>0.02606882815504993</v>
+        <v>0.008030647155809584</v>
       </c>
       <c r="J20">
-        <v>0.02606882815504994</v>
+        <v>0.008030647155809586</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N20">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O20">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P20">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q20">
-        <v>27.52220659019611</v>
+        <v>9.263292154585001</v>
       </c>
       <c r="R20">
-        <v>247.699859311765</v>
+        <v>83.36962939126499</v>
       </c>
       <c r="S20">
-        <v>0.00264462985692469</v>
+        <v>0.0004598421981674519</v>
       </c>
       <c r="T20">
-        <v>0.002644629856924689</v>
+        <v>0.000459842198167452</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.359965</v>
+      </c>
+      <c r="H21">
+        <v>1.079895</v>
+      </c>
+      <c r="I21">
+        <v>0.008030647155809584</v>
+      </c>
+      <c r="J21">
+        <v>0.008030647155809586</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>134.590487</v>
+      </c>
+      <c r="N21">
+        <v>403.771461</v>
+      </c>
+      <c r="O21">
+        <v>0.2994798153003695</v>
+      </c>
+      <c r="P21">
+        <v>0.2994798153003695</v>
+      </c>
+      <c r="Q21">
+        <v>48.447864652955</v>
+      </c>
+      <c r="R21">
+        <v>436.030781876595</v>
+      </c>
+      <c r="S21">
+        <v>0.002405016726964292</v>
+      </c>
+      <c r="T21">
+        <v>0.002405016726964293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.02382233333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.071467</v>
+      </c>
+      <c r="I22">
+        <v>0.0005314648741629914</v>
+      </c>
+      <c r="J22">
+        <v>0.0005314648741629914</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>211.7369283333333</v>
+      </c>
+      <c r="N22">
+        <v>635.210785</v>
+      </c>
+      <c r="O22">
+        <v>0.471139807893958</v>
+      </c>
+      <c r="P22">
+        <v>0.471139807893958</v>
+      </c>
+      <c r="Q22">
+        <v>5.044067685732778</v>
+      </c>
+      <c r="R22">
+        <v>45.396609171595</v>
+      </c>
+      <c r="S22">
+        <v>0.0002503942587155383</v>
+      </c>
+      <c r="T22">
+        <v>0.0002503942587155383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.9739683333333332</v>
-      </c>
-      <c r="H21">
-        <v>2.921905</v>
-      </c>
-      <c r="I21">
-        <v>0.02606882815504993</v>
-      </c>
-      <c r="J21">
-        <v>0.02606882815504994</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>59.37981533333333</v>
-      </c>
-      <c r="N21">
-        <v>178.139446</v>
-      </c>
-      <c r="O21">
-        <v>0.2131787034353869</v>
-      </c>
-      <c r="P21">
-        <v>0.2131787034353868</v>
-      </c>
-      <c r="Q21">
-        <v>57.83405977384777</v>
-      </c>
-      <c r="R21">
-        <v>520.50653796463</v>
-      </c>
-      <c r="S21">
-        <v>0.005557318986173453</v>
-      </c>
-      <c r="T21">
-        <v>0.005557318986173451</v>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.02382233333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.071467</v>
+      </c>
+      <c r="I23">
+        <v>0.0005314648741629914</v>
+      </c>
+      <c r="J23">
+        <v>0.0005314648741629914</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>76.35132866666667</v>
+      </c>
+      <c r="N23">
+        <v>229.053986</v>
+      </c>
+      <c r="O23">
+        <v>0.1698907724959131</v>
+      </c>
+      <c r="P23">
+        <v>0.1698907724959131</v>
+      </c>
+      <c r="Q23">
+        <v>1.818866801940223</v>
+      </c>
+      <c r="R23">
+        <v>16.369801217462</v>
+      </c>
+      <c r="S23">
+        <v>9.029097802599384E-05</v>
+      </c>
+      <c r="T23">
+        <v>9.029097802599383E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.02382233333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.071467</v>
+      </c>
+      <c r="I24">
+        <v>0.0005314648741629914</v>
+      </c>
+      <c r="J24">
+        <v>0.0005314648741629914</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.001605</v>
+      </c>
+      <c r="N24">
+        <v>3.004815</v>
+      </c>
+      <c r="O24">
+        <v>0.00222869005893356</v>
+      </c>
+      <c r="P24">
+        <v>0.00222869005893356</v>
+      </c>
+      <c r="Q24">
+        <v>0.02386056817833333</v>
+      </c>
+      <c r="R24">
+        <v>0.214745113605</v>
+      </c>
+      <c r="S24">
+        <v>1.184470481719435E-06</v>
+      </c>
+      <c r="T24">
+        <v>1.184470481719435E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.02382233333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.071467</v>
+      </c>
+      <c r="I25">
+        <v>0.0005314648741629914</v>
+      </c>
+      <c r="J25">
+        <v>0.0005314648741629914</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>25.733869</v>
+      </c>
+      <c r="N25">
+        <v>77.201607</v>
+      </c>
+      <c r="O25">
+        <v>0.05726091425082595</v>
+      </c>
+      <c r="P25">
+        <v>0.05726091425082595</v>
+      </c>
+      <c r="Q25">
+        <v>0.6130408052743334</v>
+      </c>
+      <c r="R25">
+        <v>5.517367247469</v>
+      </c>
+      <c r="S25">
+        <v>3.043216458677306E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.043216458677306E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.02382233333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.071467</v>
+      </c>
+      <c r="I26">
+        <v>0.0005314648741629914</v>
+      </c>
+      <c r="J26">
+        <v>0.0005314648741629914</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>134.590487</v>
+      </c>
+      <c r="N26">
+        <v>403.771461</v>
+      </c>
+      <c r="O26">
+        <v>0.2994798153003695</v>
+      </c>
+      <c r="P26">
+        <v>0.2994798153003695</v>
+      </c>
+      <c r="Q26">
+        <v>3.206259444809667</v>
+      </c>
+      <c r="R26">
+        <v>28.856335003287</v>
+      </c>
+      <c r="S26">
+        <v>0.0001591630023529668</v>
+      </c>
+      <c r="T26">
+        <v>0.0001591630023529668</v>
       </c>
     </row>
   </sheetData>
